--- a/Documentation/Journal de bord TPI.xlsx
+++ b/Documentation/Journal de bord TPI.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Date</t>
   </si>
@@ -69,6 +69,33 @@
   </si>
   <si>
     <t>Preparation du mail d'envoie</t>
+  </si>
+  <si>
+    <t>MCD numerique</t>
+  </si>
+  <si>
+    <t>MLD numerique</t>
+  </si>
+  <si>
+    <t>MCD-MLD papier</t>
+  </si>
+  <si>
+    <t>Preparation du template / maquette visuel</t>
+  </si>
+  <si>
+    <t>Utilisation d'un logiciel nommé nicepage pour crée un template. Il me faut demander a mon chef de projet si il considere ok pour une maquette visuel</t>
+  </si>
+  <si>
+    <t>Arborescence du site</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>MCD-MLD decrit + mise en page + premier point de la docs ecrit</t>
+  </si>
+  <si>
+    <t>Planification initiale</t>
   </si>
 </sst>
 </file>
@@ -741,7 +768,7 @@
   <dimension ref="B1:E82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,7 +847,9 @@
       <c r="D6" s="10">
         <v>120</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
@@ -849,40 +878,80 @@
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="19"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
+      <c r="B9" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="9">
+        <v>44320</v>
+      </c>
+      <c r="D9" s="10">
+        <v>40</v>
+      </c>
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
+      <c r="B10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="9">
+        <v>44320</v>
+      </c>
+      <c r="D10" s="10">
+        <v>25</v>
+      </c>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="19"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
+      <c r="B11" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="9">
+        <v>44320</v>
+      </c>
+      <c r="D11" s="10">
+        <v>60</v>
+      </c>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="19"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="5"/>
+    <row r="12" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="9">
+        <v>44320</v>
+      </c>
+      <c r="D12" s="10">
+        <v>120</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
+      <c r="B13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="9">
+        <v>44320</v>
+      </c>
+      <c r="D13" s="10">
+        <v>40</v>
+      </c>
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="19"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="5"/>
+      <c r="B14" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="9">
+        <v>44320</v>
+      </c>
+      <c r="D14" s="10">
+        <v>120</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="19"/>

--- a/Documentation/Journal de bord TPI.xlsx
+++ b/Documentation/Journal de bord TPI.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -92,10 +92,34 @@
     <t>Documentation</t>
   </si>
   <si>
-    <t>MCD-MLD decrit + mise en page + premier point de la docs ecrit</t>
-  </si>
-  <si>
     <t>Planification initiale</t>
+  </si>
+  <si>
+    <t>Documentation de mon mcd-mld</t>
+  </si>
+  <si>
+    <t>Mise en page + premier point de la docs ecrit</t>
+  </si>
+  <si>
+    <t>Ecriture des points dans la docs de chaque tables des mcd-mld</t>
+  </si>
+  <si>
+    <t>Création de la maquettes visuel de tout le site</t>
+  </si>
+  <si>
+    <t>Ecriture du mail d'envoie des PDF</t>
+  </si>
+  <si>
+    <t>Comme demandé par Monsieur Montemayor, un envoie au format PDF de la documentation et du journal de travail. J'ai vite remis en forme un bug sur la doc</t>
+  </si>
+  <si>
+    <t>Cela m'a pris pas mal de temps, J'ai fais les maquettes pour l'acceuil, Mon calendrier vue mois et semaine, modifier/ajouter évènement, contact, login, register, profil</t>
+  </si>
+  <si>
+    <t>Discussion avec le chef de projet</t>
+  </si>
+  <si>
+    <t>A propos de la pertinance d'un gantt dans un projet en mode Agile. Resultat: Pas besoin j'ai fais juste.</t>
   </si>
 </sst>
 </file>
@@ -290,14 +314,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -351,6 +372,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -767,8 +794,8 @@
   </sheetPr>
   <dimension ref="B1:E82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E23" sqref="E22:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,568 +825,600 @@
       </c>
     </row>
     <row r="3" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>44319</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>45</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>44319</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>45</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="22" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>44319</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>60</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="22"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>44319</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>120</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="8">
+        <v>44319</v>
+      </c>
+      <c r="D7" s="9">
+        <v>60</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="8">
+        <v>44319</v>
+      </c>
+      <c r="D8" s="9">
+        <v>60</v>
+      </c>
+      <c r="E8" s="22"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="8">
+        <v>44320</v>
+      </c>
+      <c r="D9" s="9">
+        <v>40</v>
+      </c>
+      <c r="E9" s="22"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="8">
+        <v>44320</v>
+      </c>
+      <c r="D10" s="9">
+        <v>25</v>
+      </c>
+      <c r="E10" s="22"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="8">
+        <v>44320</v>
+      </c>
+      <c r="D11" s="9">
+        <v>60</v>
+      </c>
+      <c r="E11" s="22"/>
+    </row>
+    <row r="12" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="8">
+        <v>44320</v>
+      </c>
+      <c r="D12" s="9">
+        <v>120</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="8">
+        <v>44320</v>
+      </c>
+      <c r="D13" s="9">
+        <v>40</v>
+      </c>
+      <c r="E13" s="22"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="8">
+        <v>44320</v>
+      </c>
+      <c r="D14" s="9">
+        <v>120</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="9">
-        <v>44319</v>
-      </c>
-      <c r="D7" s="10">
-        <v>60</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="9">
-        <v>44319</v>
-      </c>
-      <c r="D8" s="10">
-        <v>60</v>
-      </c>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="19" t="s">
+      <c r="C15" s="8">
+        <v>44320</v>
+      </c>
+      <c r="D15" s="9">
+        <v>40</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="8">
+        <v>44322</v>
+      </c>
+      <c r="D16" s="9">
         <v>15</v>
       </c>
-      <c r="C9" s="9">
-        <v>44320</v>
-      </c>
-      <c r="D9" s="10">
-        <v>40</v>
-      </c>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="9">
-        <v>44320</v>
-      </c>
-      <c r="D10" s="10">
-        <v>25</v>
-      </c>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="9">
-        <v>44320</v>
-      </c>
-      <c r="D11" s="10">
-        <v>60</v>
-      </c>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="9">
-        <v>44320</v>
-      </c>
-      <c r="D12" s="10">
-        <v>120</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="9">
-        <v>44320</v>
-      </c>
-      <c r="D13" s="10">
-        <v>40</v>
-      </c>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="9">
-        <v>44320</v>
-      </c>
-      <c r="D14" s="10">
-        <v>120</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="19"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="19"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="19"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="19"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="5"/>
+      <c r="E16" s="22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B17" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="8">
+        <v>44322</v>
+      </c>
+      <c r="D17" s="9">
+        <v>180</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="8">
+        <v>44322</v>
+      </c>
+      <c r="D18" s="9">
+        <v>10</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="19"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="5"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="22"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="19"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="5"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="22"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="19"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="5"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="22"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="19"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="5"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="22"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="19"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="5"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="22"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="19"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="5"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="22"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="19"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="5"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="22"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="19"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="5"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="22"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="19"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="5"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="22"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="19"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="5"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="22"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="19"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="5"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="22"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="19"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="5"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="22"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="19"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="5"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="22"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="8"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="5"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="22"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="19"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="5"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="22"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="19"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="5"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="22"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="19"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="5"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="22"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="19"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="5"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="22"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="19"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="5"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="22"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="19"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="5"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="22"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="19"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="5"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="22"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="8"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="5"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="22"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="8"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="5"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="22"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="19"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="5"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="22"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="19"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="5"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="22"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="19"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="5"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="22"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="19"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="5"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="22"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="19"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="5"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="22"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="19"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="5"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="22"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="19"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="5"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="22"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="19"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="5"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="22"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="19"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="5"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="22"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="19"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="5"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="22"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="19"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="5"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="22"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="19"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="5"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="22"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="19"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="5"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="22"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="19"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="5"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="22"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B56" s="19"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="5"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="22"/>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="19"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="5"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="22"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="19"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="5"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="22"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="19"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="5"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="22"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="19"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="5"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="22"/>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B61" s="19"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="5"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="22"/>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B62" s="19"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="5"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="22"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B63" s="19"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="5"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="22"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B64" s="19"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="5"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="22"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B65" s="19"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="21"/>
-      <c r="E65" s="5"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="22"/>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B66" s="19"/>
-      <c r="C66" s="20"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="5"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="22"/>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B67" s="19"/>
-      <c r="C67" s="20"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="5"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="22"/>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B68" s="19"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="21"/>
-      <c r="E68" s="5"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="22"/>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B69" s="19"/>
-      <c r="C69" s="20"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="5"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="22"/>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B70" s="19"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="5"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="22"/>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B71" s="19"/>
-      <c r="C71" s="20"/>
-      <c r="D71" s="21"/>
-      <c r="E71" s="5"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="22"/>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B72" s="19"/>
-      <c r="C72" s="20"/>
-      <c r="D72" s="21"/>
-      <c r="E72" s="5"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="22"/>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B73" s="19"/>
-      <c r="C73" s="20"/>
-      <c r="D73" s="21"/>
-      <c r="E73" s="5"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="22"/>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B74" s="19"/>
-      <c r="C74" s="20"/>
-      <c r="D74" s="21"/>
-      <c r="E74" s="5"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="22"/>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B75" s="19"/>
-      <c r="C75" s="20"/>
-      <c r="D75" s="21"/>
-      <c r="E75" s="5"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="22"/>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B76" s="19"/>
-      <c r="C76" s="20"/>
-      <c r="D76" s="21"/>
-      <c r="E76" s="5"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="22"/>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B77" s="19"/>
-      <c r="C77" s="20"/>
-      <c r="D77" s="21"/>
-      <c r="E77" s="5"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="20"/>
+      <c r="E77" s="22"/>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B78" s="19"/>
-      <c r="C78" s="20"/>
-      <c r="D78" s="21"/>
-      <c r="E78" s="5"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="22"/>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B79" s="19"/>
-      <c r="C79" s="20"/>
-      <c r="D79" s="21"/>
-      <c r="E79" s="5"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="4"/>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B80" s="19"/>
-      <c r="C80" s="20"/>
-      <c r="D80" s="21"/>
-      <c r="E80" s="5"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="19"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="4"/>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B81" s="22"/>
-      <c r="C81" s="22"/>
-      <c r="D81" s="22"/>
-      <c r="E81" s="22"/>
+      <c r="B81" s="21"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B82" s="13"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="16"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Journal de bord TPI.xlsx
+++ b/Documentation/Journal de bord TPI.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -120,6 +120,12 @@
   </si>
   <si>
     <t>A propos de la pertinance d'un gantt dans un projet en mode Agile. Resultat: Pas besoin j'ai fais juste.</t>
+  </si>
+  <si>
+    <t>Ajout des maquettes et commentaires dans la documentation</t>
+  </si>
+  <si>
+    <t>Debut de usercase + test</t>
   </si>
 </sst>
 </file>
@@ -794,8 +800,8 @@
   </sheetPr>
   <dimension ref="B1:E82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E23" sqref="E22:E23"/>
+    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,17 +1042,29 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="18"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
+    <row r="19" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B19" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="8">
+        <v>44322</v>
+      </c>
+      <c r="D19" s="9">
+        <v>60</v>
+      </c>
       <c r="E19" s="22"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="18"/>
+      <c r="B20" s="18" t="s">
+        <v>19</v>
+      </c>
       <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="22"/>
+      <c r="D20" s="9">
+        <v>120</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="18"/>

--- a/Documentation/Journal de bord TPI.xlsx
+++ b/Documentation/Journal de bord TPI.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Date</t>
   </si>
@@ -126,6 +126,12 @@
   </si>
   <si>
     <t>Debut de usercase + test</t>
+  </si>
+  <si>
+    <t>Derniere retouche sur les maquettes graphique</t>
+  </si>
+  <si>
+    <t>2-3 mots a passer d'anglais a français + bug d'affichage</t>
   </si>
 </sst>
 </file>
@@ -800,8 +806,8 @@
   </sheetPr>
   <dimension ref="B1:E82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1058,7 +1064,9 @@
       <c r="B20" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="8"/>
+      <c r="C20" s="8">
+        <v>44322</v>
+      </c>
       <c r="D20" s="9">
         <v>120</v>
       </c>
@@ -1066,11 +1074,19 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="18"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="22"/>
+    <row r="21" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B21" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="8">
+        <v>44322</v>
+      </c>
+      <c r="D21" s="9">
+        <v>60</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="18"/>

--- a/Documentation/Journal de bord TPI.xlsx
+++ b/Documentation/Journal de bord TPI.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="43">
   <si>
     <t>Date</t>
   </si>
@@ -125,13 +125,40 @@
     <t>Ajout des maquettes et commentaires dans la documentation</t>
   </si>
   <si>
-    <t>Debut de usercase + test</t>
-  </si>
-  <si>
     <t>Derniere retouche sur les maquettes graphique</t>
   </si>
   <si>
     <t>2-3 mots a passer d'anglais a français + bug d'affichage</t>
+  </si>
+  <si>
+    <t>Recherche a propos du code du calendrier</t>
+  </si>
+  <si>
+    <t>Etant donné que j'ai fini le sprint 1, je me documente déjà sur comment va se passer la suite histoire de me donné une idée de combien de temps cela va prendre. J'ai déjà reussi a trouver un code source a étudier: https://codes-sources.commentcamarche.net/source/50541-calendrier-agenda-tres-simple-gerer-les-jours-feries-et-les-jours-speciaux</t>
+  </si>
+  <si>
+    <t>Ajout d'un ReadMe sur le Git</t>
+  </si>
+  <si>
+    <t>Ajout + ecritude de celui-ci + redecouverte du MarkDown</t>
+  </si>
+  <si>
+    <t>Retrospective Sprint 1 sur le Git</t>
+  </si>
+  <si>
+    <t>en + passage du git en public, sinon la creation d'un git n'est pas possible</t>
+  </si>
+  <si>
+    <t>Debut de usercase + test + autres points de la doc de l'analyse et conception</t>
+  </si>
+  <si>
+    <t>Debut du touchage de code avec le calendrier</t>
+  </si>
+  <si>
+    <t>En attendant la fin du sprint qui est la fin de cette journée.</t>
+  </si>
+  <si>
+    <t>En attendant la fin du sprint qui est la fin de cette journée. Couleur du calendrier, test des fonctionalité, design, etc. Pas de code majeur juste de la mise en page.</t>
   </si>
 </sst>
 </file>
@@ -807,7 +834,7 @@
   <dimension ref="B1:E82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1071,12 +1098,12 @@
         <v>120</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" s="8">
         <v>44322</v>
@@ -1085,32 +1112,64 @@
         <v>60</v>
       </c>
       <c r="E21" s="22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="B22" s="18" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="18"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="22"/>
+      <c r="C22" s="8">
+        <v>44323</v>
+      </c>
+      <c r="D22" s="9">
+        <v>60</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="18"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="22"/>
+      <c r="B23" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="8">
+        <v>44323</v>
+      </c>
+      <c r="D23" s="9">
+        <v>30</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="18"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="22"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="18"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="22"/>
+      <c r="B24" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="8">
+        <v>44323</v>
+      </c>
+      <c r="D24" s="9">
+        <v>60</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B25" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="8">
+        <v>44323</v>
+      </c>
+      <c r="D25" s="9">
+        <v>60</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="18"/>

--- a/Documentation/Journal de bord TPI.xlsx
+++ b/Documentation/Journal de bord TPI.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t>Date</t>
   </si>
@@ -47,27 +47,18 @@
     <t>Lecture du CDC avec les experts</t>
   </si>
   <si>
-    <t>Reçu le cahier des charges + premier entretient avec Monsieur Montemayor</t>
-  </si>
-  <si>
     <t>Creation du Git + IceScrum</t>
   </si>
   <si>
     <t>Sprints + tasks IceScrum</t>
   </si>
   <si>
-    <t>Prise en main de icescrum</t>
-  </si>
-  <si>
     <t>Creation des premiers documents</t>
   </si>
   <si>
     <t>Realisation des sprints sur papier</t>
   </si>
   <si>
-    <t>Plus debut de la mise en page de la Doc</t>
-  </si>
-  <si>
     <t>Preparation du mail d'envoie</t>
   </si>
   <si>
@@ -83,36 +74,21 @@
     <t>Preparation du template / maquette visuel</t>
   </si>
   <si>
-    <t>Utilisation d'un logiciel nommé nicepage pour crée un template. Il me faut demander a mon chef de projet si il considere ok pour une maquette visuel</t>
-  </si>
-  <si>
     <t>Arborescence du site</t>
   </si>
   <si>
     <t>Documentation</t>
   </si>
   <si>
-    <t>Planification initiale</t>
-  </si>
-  <si>
     <t>Documentation de mon mcd-mld</t>
   </si>
   <si>
-    <t>Mise en page + premier point de la docs ecrit</t>
-  </si>
-  <si>
-    <t>Ecriture des points dans la docs de chaque tables des mcd-mld</t>
-  </si>
-  <si>
     <t>Création de la maquettes visuel de tout le site</t>
   </si>
   <si>
     <t>Ecriture du mail d'envoie des PDF</t>
   </si>
   <si>
-    <t>Comme demandé par Monsieur Montemayor, un envoie au format PDF de la documentation et du journal de travail. J'ai vite remis en forme un bug sur la doc</t>
-  </si>
-  <si>
     <t>Cela m'a pris pas mal de temps, J'ai fais les maquettes pour l'acceuil, Mon calendrier vue mois et semaine, modifier/ajouter évènement, contact, login, register, profil</t>
   </si>
   <si>
@@ -128,9 +104,6 @@
     <t>Derniere retouche sur les maquettes graphique</t>
   </si>
   <si>
-    <t>2-3 mots a passer d'anglais a français + bug d'affichage</t>
-  </si>
-  <si>
     <t>Recherche a propos du code du calendrier</t>
   </si>
   <si>
@@ -140,25 +113,79 @@
     <t>Ajout d'un ReadMe sur le Git</t>
   </si>
   <si>
-    <t>Ajout + ecritude de celui-ci + redecouverte du MarkDown</t>
-  </si>
-  <si>
     <t>Retrospective Sprint 1 sur le Git</t>
   </si>
   <si>
-    <t>en + passage du git en public, sinon la creation d'un git n'est pas possible</t>
-  </si>
-  <si>
-    <t>Debut de usercase + test + autres points de la doc de l'analyse et conception</t>
-  </si>
-  <si>
     <t>Debut du touchage de code avec le calendrier</t>
   </si>
   <si>
-    <t>En attendant la fin du sprint qui est la fin de cette journée.</t>
-  </si>
-  <si>
     <t>En attendant la fin du sprint qui est la fin de cette journée. Couleur du calendrier, test des fonctionalité, design, etc. Pas de code majeur juste de la mise en page.</t>
+  </si>
+  <si>
+    <t>Ecriture des test et taches du sprint 2</t>
+  </si>
+  <si>
+    <t>Sprint 1 review</t>
+  </si>
+  <si>
+    <t>Création de la base de donnée</t>
+  </si>
+  <si>
+    <t>Architecture MVC</t>
+  </si>
+  <si>
+    <t>Adaptation du Template en MVC + Redirection pour une navigation basique sur le site.</t>
+  </si>
+  <si>
+    <t>Modification dans la doc</t>
+  </si>
+  <si>
+    <t>Les modifications sont en rapport a ce d'ont nous avons parler pendant la sprint review.</t>
+  </si>
+  <si>
+    <t>Ajout + ecritude de celui-ci + redecouverte du MarkDown.</t>
+  </si>
+  <si>
+    <t>en + passage du git en public, sinon la creation d'un git n'est pas possible.</t>
+  </si>
+  <si>
+    <t>Comme demandé par Monsieur Montemayor, un envoie au format PDF de la documentation et du journal de travail. J'ai vite remis en forme un bug sur la doc.</t>
+  </si>
+  <si>
+    <t>Ecriture des points dans la docs de chaque tables des mcd-mld.</t>
+  </si>
+  <si>
+    <t>Mise en page + premier point de la docs ecrit.</t>
+  </si>
+  <si>
+    <t>Utilisation d'un logiciel nommé nicepage pour crée un template. Il me faut demander a mon chef de projet si il considere ok pour une maquette visuel.</t>
+  </si>
+  <si>
+    <t>Plus debut de la mise en page de la Doc.</t>
+  </si>
+  <si>
+    <t>Planification initiale.</t>
+  </si>
+  <si>
+    <t>Prise en main de icescrum.</t>
+  </si>
+  <si>
+    <t>Reçu le cahier des charges + premier entretient avec Monsieur Montemayor.</t>
+  </si>
+  <si>
+    <t>Debut de usercase + test + autres points de la doc de l'analyse et conception.</t>
+  </si>
+  <si>
+    <t>2-3 mots a passer d'anglais a français + bug d'affichage.</t>
+  </si>
+  <si>
+    <t>Base de donnée + utilisateur.</t>
+  </si>
+  <si>
+    <t>Diagramme de code pour ajouter un évènement</t>
+  </si>
+  <si>
+    <t>Charte graphique + 2-3 autres points</t>
   </si>
 </sst>
 </file>
@@ -833,8 +860,8 @@
   </sheetPr>
   <dimension ref="B1:E82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,12 +901,12 @@
         <v>45</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="10">
         <v>44319</v>
@@ -888,12 +915,12 @@
         <v>45</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" s="8">
         <v>44319</v>
@@ -905,7 +932,7 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="8">
         <v>44319</v>
@@ -914,12 +941,12 @@
         <v>120</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" s="8">
         <v>44319</v>
@@ -928,12 +955,12 @@
         <v>60</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C8" s="8">
         <v>44319</v>
@@ -945,7 +972,7 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="18" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C9" s="8">
         <v>44320</v>
@@ -957,7 +984,7 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C10" s="8">
         <v>44320</v>
@@ -969,7 +996,7 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="18" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C11" s="8">
         <v>44320</v>
@@ -981,7 +1008,7 @@
     </row>
     <row r="12" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="18" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C12" s="8">
         <v>44320</v>
@@ -990,12 +1017,12 @@
         <v>120</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C13" s="8">
         <v>44320</v>
@@ -1007,7 +1034,7 @@
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="18" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C14" s="8">
         <v>44320</v>
@@ -1016,12 +1043,12 @@
         <v>120</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C15" s="8">
         <v>44320</v>
@@ -1030,12 +1057,12 @@
         <v>40</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C16" s="8">
         <v>44322</v>
@@ -1044,12 +1071,12 @@
         <v>15</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B17" s="18" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C17" s="8">
         <v>44322</v>
@@ -1058,12 +1085,12 @@
         <v>180</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="18" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C18" s="8">
         <v>44322</v>
@@ -1072,12 +1099,12 @@
         <v>10</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B19" s="18" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C19" s="8">
         <v>44322</v>
@@ -1089,7 +1116,7 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="18" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C20" s="8">
         <v>44322</v>
@@ -1098,12 +1125,12 @@
         <v>120</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" s="18" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C21" s="8">
         <v>44322</v>
@@ -1112,12 +1139,12 @@
         <v>60</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="75" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C22" s="8">
         <v>44323</v>
@@ -1126,12 +1153,12 @@
         <v>60</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C23" s="8">
         <v>44323</v>
@@ -1140,12 +1167,12 @@
         <v>30</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="18" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C24" s="8">
         <v>44323</v>
@@ -1159,7 +1186,7 @@
     </row>
     <row r="25" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C25" s="8">
         <v>44323</v>
@@ -1168,50 +1195,100 @@
         <v>60</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="18"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9"/>
+      <c r="B26" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="8">
+        <v>44326</v>
+      </c>
+      <c r="D26" s="9">
+        <v>60</v>
+      </c>
       <c r="E26" s="22"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="18"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="9"/>
+      <c r="B27" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="8">
+        <v>44326</v>
+      </c>
+      <c r="D27" s="9">
+        <v>60</v>
+      </c>
       <c r="E27" s="22"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="18"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="22"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="18"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="22"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="18"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="22"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="18"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="9"/>
+      <c r="B28" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="8">
+        <v>44326</v>
+      </c>
+      <c r="D28" s="9">
+        <v>30</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B29" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="8">
+        <v>44326</v>
+      </c>
+      <c r="D29" s="9">
+        <v>60</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B30" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="8">
+        <v>44326</v>
+      </c>
+      <c r="D30" s="9">
+        <v>120</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B31" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="8">
+        <v>44326</v>
+      </c>
+      <c r="D31" s="9">
+        <v>60</v>
+      </c>
       <c r="E31" s="22"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="7"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="22"/>
+      <c r="B32" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="8">
+        <v>44326</v>
+      </c>
+      <c r="D32" s="9">
+        <v>30</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="18"/>

--- a/Documentation/Journal de bord TPI.xlsx
+++ b/Documentation/Journal de bord TPI.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
   <si>
     <t>Date</t>
   </si>
@@ -186,6 +186,51 @@
   </si>
   <si>
     <t>Charte graphique + 2-3 autres points</t>
+  </si>
+  <si>
+    <t>Diagramme de code pour modifier un évènement</t>
+  </si>
+  <si>
+    <t>Diagramme de code pour supprimer un évènement</t>
+  </si>
+  <si>
+    <t>Modification de 2-3 trucs</t>
+  </si>
+  <si>
+    <t>Reprise du debut de code du calendrier et mise a niveau des couleurs avec la charte graphique de la doc</t>
+  </si>
+  <si>
+    <t>Couleur + petite adaptation aux besoins</t>
+  </si>
+  <si>
+    <t>Mise en place de l'hebergement</t>
+  </si>
+  <si>
+    <t>Discussion avec le chef de projet + ajout du site vitrine sur swisscenter</t>
+  </si>
+  <si>
+    <t>Ajout des diagramme dans la documentation</t>
+  </si>
+  <si>
+    <t>Travail sur l'ajout d'un login pour le site vitrine</t>
+  </si>
+  <si>
+    <t>Pas encore au points a cause de tout ce qu'il faut retoucher. Ex: name des label du template, redirection, etc..</t>
+  </si>
+  <si>
+    <t>Sprint 2 fini a partir d'ici</t>
+  </si>
+  <si>
+    <t>Rétrospective sprint 2</t>
+  </si>
+  <si>
+    <t>Preparation de l'envoi du mail</t>
+  </si>
+  <si>
+    <t>Rendu hebdomadaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mise en page du word + journal de bord </t>
   </si>
 </sst>
 </file>
@@ -860,14 +905,14 @@
   </sheetPr>
   <dimension ref="B1:E82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.140625" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" customWidth="1"/>
     <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" customWidth="1"/>
     <col min="5" max="5" width="74" customWidth="1"/>
@@ -1290,65 +1335,137 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="18"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="20"/>
+    <row r="33" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B33" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="19">
+        <v>44327</v>
+      </c>
+      <c r="D33" s="20">
+        <v>30</v>
+      </c>
       <c r="E33" s="22"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="18"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="20"/>
+    <row r="34" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B34" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="19">
+        <v>44327</v>
+      </c>
+      <c r="D34" s="20">
+        <v>30</v>
+      </c>
       <c r="E34" s="22"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="18"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="22"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="18"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="22"/>
+    <row r="35" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B35" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="19">
+        <v>44327</v>
+      </c>
+      <c r="D35" s="20">
+        <v>15</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B36" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="19">
+        <v>44327</v>
+      </c>
+      <c r="D36" s="20">
+        <v>30</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="18"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="22"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="18"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="22"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="18"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="22"/>
+      <c r="B37" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="19">
+        <v>44327</v>
+      </c>
+      <c r="D37" s="20">
+        <v>60</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B38" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="19">
+        <v>44327</v>
+      </c>
+      <c r="D38" s="20">
+        <v>30</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B39" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="19">
+        <v>44327</v>
+      </c>
+      <c r="D39" s="20">
+        <v>120</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="7"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="9"/>
+      <c r="B40" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="19">
+        <v>44327</v>
+      </c>
+      <c r="D40" s="9">
+        <v>30</v>
+      </c>
       <c r="E40" s="22"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="7"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="22"/>
+      <c r="B41" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" s="19">
+        <v>44327</v>
+      </c>
+      <c r="D41" s="9">
+        <v>15</v>
+      </c>
+      <c r="E41" s="4"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="18"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="22"/>
+      <c r="B42" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="19">
+        <v>44327</v>
+      </c>
+      <c r="D42" s="9">
+        <v>15</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" s="18"/>

--- a/Documentation/Journal de bord TPI.xlsx
+++ b/Documentation/Journal de bord TPI.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="74">
   <si>
     <t>Date</t>
   </si>
@@ -231,6 +231,27 @@
   </si>
   <si>
     <t xml:space="preserve">Mise en page du word + journal de bord </t>
+  </si>
+  <si>
+    <t>Code du register</t>
+  </si>
+  <si>
+    <t>Ajustement visuel du register</t>
+  </si>
+  <si>
+    <t>Ajustement visuel du login</t>
+  </si>
+  <si>
+    <t>avec une case d'erreur si la connexion echoue</t>
+  </si>
+  <si>
+    <t>finission du login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajout du calendrier trouver en exemple </t>
+  </si>
+  <si>
+    <t>en plus de tout les ajustement a faire des noms des variables du decorticage du php dans l'html, et de mettre le tout en structure MVC</t>
   </si>
 </sst>
 </file>
@@ -905,8 +926,8 @@
   </sheetPr>
   <dimension ref="B1:E82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1468,34 +1489,70 @@
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="18"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="20"/>
+      <c r="B43" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" s="19">
+        <v>44333</v>
+      </c>
+      <c r="D43" s="20">
+        <v>60</v>
+      </c>
       <c r="E43" s="22"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="18"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="20"/>
+      <c r="B44" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" s="19">
+        <v>44333</v>
+      </c>
+      <c r="D44" s="20">
+        <v>120</v>
+      </c>
       <c r="E44" s="22"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="18"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="22"/>
+      <c r="B45" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="19">
+        <v>44333</v>
+      </c>
+      <c r="D45" s="20">
+        <v>60</v>
+      </c>
+      <c r="E45" s="22" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="18"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="22"/>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="18"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="22"/>
+      <c r="B46" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" s="19">
+        <v>44333</v>
+      </c>
+      <c r="D46" s="20">
+        <v>15</v>
+      </c>
+      <c r="E46" s="22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B47" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="19">
+        <v>44333</v>
+      </c>
+      <c r="D47" s="20">
+        <v>120</v>
+      </c>
+      <c r="E47" s="22" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" s="18"/>

--- a/Documentation/Journal de bord TPI.xlsx
+++ b/Documentation/Journal de bord TPI.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="88">
   <si>
     <t>Date</t>
   </si>
@@ -252,6 +252,48 @@
   </si>
   <si>
     <t>en plus de tout les ajustement a faire des noms des variables du decorticage du php dans l'html, et de mettre le tout en structure MVC</t>
+  </si>
+  <si>
+    <t>Aide apporté a un camarade</t>
+  </si>
+  <si>
+    <t>Jérôme jaquemet avait besoin d'aide pour l'élaboration des regles de sont TPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decorticage en profondeur du code du calendrier </t>
+  </si>
+  <si>
+    <t>Mise en page plus joli du calendar avec l'ajout du bouton Aujourd'hui</t>
+  </si>
+  <si>
+    <t>Pouvoir changer les mois et année du calendrier</t>
+  </si>
+  <si>
+    <t>Sprint 2 review</t>
+  </si>
+  <si>
+    <t>Avec le chef de projet</t>
+  </si>
+  <si>
+    <t>Fonction du bouton aujourd'hui et fonctionel</t>
+  </si>
+  <si>
+    <t>Ajout d'une fonction sur le calendrier</t>
+  </si>
+  <si>
+    <t>Quand il s'affiche, le jour d'aujourd'hui est d'une couleur differente</t>
+  </si>
+  <si>
+    <t>Date du jour en surbrillance</t>
+  </si>
+  <si>
+    <t>Bug de la date du jour</t>
+  </si>
+  <si>
+    <t>Quand je passe la souris dessus, la date du jour retourne a la couleur initiale. De plus la date est en surbrillance chaque mois. (pas encore fini de regler)</t>
+  </si>
+  <si>
+    <t>Creation de la bd sur swisscenter + update des fichiers du site</t>
   </si>
 </sst>
 </file>
@@ -926,8 +968,8 @@
   </sheetPr>
   <dimension ref="B1:E82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1554,64 +1596,132 @@
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="18"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="20"/>
+    <row r="48" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B48" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" s="19">
+        <v>44333</v>
+      </c>
+      <c r="D48" s="20">
+        <v>60</v>
+      </c>
       <c r="E48" s="22"/>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="18"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="20"/>
+    <row r="49" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B49" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C49" s="19">
+        <v>44333</v>
+      </c>
+      <c r="D49" s="20">
+        <v>30</v>
+      </c>
       <c r="E49" s="22"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="18"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="22"/>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="18"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="20"/>
+      <c r="B50" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" s="19">
+        <v>44333</v>
+      </c>
+      <c r="D50" s="20">
+        <v>10</v>
+      </c>
+      <c r="E50" s="22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B51" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C51" s="19">
+        <v>44334</v>
+      </c>
+      <c r="D51" s="20">
+        <v>120</v>
+      </c>
       <c r="E51" s="22"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="18"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="22"/>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="18"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="20"/>
+      <c r="B52" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C52" s="19">
+        <v>44334</v>
+      </c>
+      <c r="D52" s="20">
+        <v>30</v>
+      </c>
+      <c r="E52" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B53" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C53" s="19">
+        <v>44334</v>
+      </c>
+      <c r="D53" s="20">
+        <v>30</v>
+      </c>
       <c r="E53" s="22"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="18"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="22"/>
+      <c r="B54" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C54" s="19">
+        <v>44334</v>
+      </c>
+      <c r="D54" s="20">
+        <v>60</v>
+      </c>
+      <c r="E54" s="22" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="18"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="20"/>
+      <c r="B55" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C55" s="19">
+        <v>44334</v>
+      </c>
+      <c r="D55" s="20">
+        <v>60</v>
+      </c>
       <c r="E55" s="22"/>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B56" s="18"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="22"/>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="18"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="20"/>
+    <row r="56" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B56" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C56" s="19">
+        <v>44334</v>
+      </c>
+      <c r="D56" s="20">
+        <v>60</v>
+      </c>
+      <c r="E56" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B57" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C57" s="19">
+        <v>44334</v>
+      </c>
+      <c r="D57" s="20">
+        <v>60</v>
+      </c>
       <c r="E57" s="22"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">

--- a/Documentation/Journal de bord TPI.xlsx
+++ b/Documentation/Journal de bord TPI.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="90">
   <si>
     <t>Date</t>
   </si>
@@ -294,6 +294,12 @@
   </si>
   <si>
     <t>Creation de la bd sur swisscenter + update des fichiers du site</t>
+  </si>
+  <si>
+    <t>Ajout d'un evenement</t>
+  </si>
+  <si>
+    <t>Fonction d'ajout d'un evenement</t>
   </si>
 </sst>
 </file>
@@ -968,8 +974,8 @@
   </sheetPr>
   <dimension ref="B1:E82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" topLeftCell="B43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1725,10 +1731,18 @@
       <c r="E57" s="22"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="18"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="22"/>
+      <c r="B58" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C58" s="19">
+        <v>44336</v>
+      </c>
+      <c r="D58" s="20">
+        <v>120</v>
+      </c>
+      <c r="E58" s="22" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59" s="18"/>

--- a/Documentation/Journal de bord TPI.xlsx
+++ b/Documentation/Journal de bord TPI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13650" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10320" windowHeight="6840"/>
   </bookViews>
   <sheets>
     <sheet name="Page 1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="99">
   <si>
     <t>Date</t>
   </si>
@@ -300,6 +300,33 @@
   </si>
   <si>
     <t>Fonction d'ajout d'un evenement</t>
+  </si>
+  <si>
+    <t>Visite du deuxieme expert</t>
+  </si>
+  <si>
+    <t>Reglage d'un bug sur le calendrier</t>
+  </si>
+  <si>
+    <t>Le jour d'aujourd'hui était en jaune meme au autre mois et année</t>
+  </si>
+  <si>
+    <t>Bug d'ajout d'un evenement</t>
+  </si>
+  <si>
+    <t>La query était juste mais ne marchait pas. Il a fallut des essais dans tout les sens pour voir que la copie de la BD s'etais mal faite et que l'ID était pas en auto incrementation</t>
+  </si>
+  <si>
+    <t>Creation de la fonction delete un event</t>
+  </si>
+  <si>
+    <t>Creation de la fonction update d'un event</t>
+  </si>
+  <si>
+    <t>Ajout d'une fonctionalité sur la gestion de date</t>
+  </si>
+  <si>
+    <t>Quand on clique pour gerer une date, si plusieurs evenement ont été ajouter, on peut tous les voir</t>
   </si>
 </sst>
 </file>
@@ -974,8 +1001,8 @@
   </sheetPr>
   <dimension ref="B1:E82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="B46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1745,40 +1772,78 @@
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="18"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="22"/>
+      <c r="B59" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C59" s="19">
+        <v>44336</v>
+      </c>
+      <c r="D59" s="9">
+        <v>60</v>
+      </c>
+      <c r="E59" s="22" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="18"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="20"/>
+      <c r="B60" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C60" s="19">
+        <v>44336</v>
+      </c>
+      <c r="D60" s="20">
+        <v>30</v>
+      </c>
       <c r="E60" s="22"/>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B61" s="18"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="22"/>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B62" s="18"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="20"/>
+    <row r="61" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B61" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C61" s="19">
+        <v>44336</v>
+      </c>
+      <c r="D61" s="20">
+        <v>120</v>
+      </c>
+      <c r="E61" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B62" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C62" s="19">
+        <v>44336</v>
+      </c>
+      <c r="D62" s="20">
+        <v>30</v>
+      </c>
       <c r="E62" s="22"/>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B63" s="18"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="20"/>
+    <row r="63" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B63" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C63" s="19">
+        <v>44336</v>
+      </c>
+      <c r="D63" s="20">
+        <v>60</v>
+      </c>
       <c r="E63" s="22"/>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B64" s="18"/>
+    <row r="64" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B64" s="18" t="s">
+        <v>97</v>
+      </c>
       <c r="C64" s="19"/>
       <c r="D64" s="20"/>
-      <c r="E64" s="22"/>
+      <c r="E64" s="22" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65" s="18"/>

--- a/Documentation/Journal de bord TPI.xlsx
+++ b/Documentation/Journal de bord TPI.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="103">
   <si>
     <t>Date</t>
   </si>
@@ -327,6 +327,18 @@
   </si>
   <si>
     <t>Quand on clique pour gerer une date, si plusieurs evenement ont été ajouter, on peut tous les voir</t>
+  </si>
+  <si>
+    <t>Fonction modifier</t>
+  </si>
+  <si>
+    <t>Fonction supprimer</t>
+  </si>
+  <si>
+    <t>Mise a jour du site</t>
+  </si>
+  <si>
+    <t>En plus du mail de fin de semaine.</t>
   </si>
 </sst>
 </file>
@@ -1001,8 +1013,8 @@
   </sheetPr>
   <dimension ref="B1:E82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1839,29 +1851,53 @@
       <c r="B64" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="C64" s="19"/>
-      <c r="D64" s="20"/>
+      <c r="C64" s="19">
+        <v>44336</v>
+      </c>
+      <c r="D64" s="20">
+        <v>60</v>
+      </c>
       <c r="E64" s="22" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B65" s="18"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="20"/>
+      <c r="B65" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C65" s="19">
+        <v>44337</v>
+      </c>
+      <c r="D65" s="20">
+        <v>90</v>
+      </c>
       <c r="E65" s="22"/>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B66" s="18"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="20"/>
+      <c r="B66" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C66" s="19">
+        <v>44337</v>
+      </c>
+      <c r="D66" s="20">
+        <v>60</v>
+      </c>
       <c r="E66" s="22"/>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B67" s="18"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="22"/>
+      <c r="B67" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C67" s="19">
+        <v>44337</v>
+      </c>
+      <c r="D67" s="20">
+        <v>30</v>
+      </c>
+      <c r="E67" s="22" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B68" s="18"/>

--- a/Documentation/Journal de bord TPI.xlsx
+++ b/Documentation/Journal de bord TPI.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -339,6 +339,21 @@
   </si>
   <si>
     <t>En plus du mail de fin de semaine.</t>
+  </si>
+  <si>
+    <t>Reglage d'un bug de log in sur le server</t>
+  </si>
+  <si>
+    <t>Il était déjà present au moment du livrable</t>
+  </si>
+  <si>
+    <t>Buton supprimer a continuer de coder</t>
+  </si>
+  <si>
+    <t>Probleme de reperage entre la suppresion d'un event et l'update</t>
+  </si>
+  <si>
+    <t>J'ai du identifier les form individuellement avec des id et faire les redirections adequates.</t>
   </si>
 </sst>
 </file>
@@ -1014,7 +1029,7 @@
   <dimension ref="B1:E82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1899,23 +1914,45 @@
         <v>102</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B68" s="18"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="22"/>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B69" s="18"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="20"/>
+    <row r="68" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B68" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C68" s="19">
+        <v>44341</v>
+      </c>
+      <c r="D68" s="20">
+        <v>20</v>
+      </c>
+      <c r="E68" s="22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B69" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C69" s="19">
+        <v>44341</v>
+      </c>
+      <c r="D69" s="20">
+        <v>60</v>
+      </c>
       <c r="E69" s="22"/>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B70" s="18"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="22"/>
+    <row r="70" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B70" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C70" s="19">
+        <v>44341</v>
+      </c>
+      <c r="D70" s="20">
+        <v>60</v>
+      </c>
+      <c r="E70" s="22" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B71" s="18"/>

--- a/Documentation/Journal de bord TPI.xlsx
+++ b/Documentation/Journal de bord TPI.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="117">
   <si>
     <t>Date</t>
   </si>
@@ -354,6 +354,53 @@
   </si>
   <si>
     <t>J'ai du identifier les form individuellement avec des id et faire les redirections adequates.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EXTERNE:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Entretien pour l'ES (ecole superieur de developpement d'application)</t>
+    </r>
+  </si>
+  <si>
+    <t>Bug de redirection des pages</t>
+  </si>
+  <si>
+    <t>Correction des redirection + ajout de messages d'erreur.</t>
+  </si>
+  <si>
+    <t>Finission du bouton supprimer qui interfere avec l'update</t>
+  </si>
+  <si>
+    <t>Il ne detecte toujours pas completement si c'est un delete ou un update avec ma manière de faire.</t>
+  </si>
+  <si>
+    <t>Update du git</t>
+  </si>
+  <si>
+    <t>ajout d'une release</t>
+  </si>
+  <si>
+    <t>Ajout d'une future feature</t>
+  </si>
+  <si>
+    <t>Le changement de jours a semaine a mois, etc..</t>
   </si>
 </sst>
 </file>
@@ -363,7 +410,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0\ &quot;minutes&quot;"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -374,6 +421,14 @@
     <font>
       <b/>
       <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1028,8 +1083,8 @@
   </sheetPr>
   <dimension ref="B1:E82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1955,40 +2010,84 @@
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B71" s="18"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="22"/>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B72" s="18"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="20"/>
+      <c r="B71" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C71" s="19">
+        <v>44341</v>
+      </c>
+      <c r="D71" s="9">
+        <v>60</v>
+      </c>
+      <c r="E71" s="22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B72" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C72" s="19">
+        <v>44341</v>
+      </c>
+      <c r="D72" s="20">
+        <v>30</v>
+      </c>
       <c r="E72" s="22"/>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B73" s="18"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="22"/>
+    <row r="73" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B73" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C73" s="19">
+        <v>44341</v>
+      </c>
+      <c r="D73" s="20">
+        <v>60</v>
+      </c>
+      <c r="E73" s="22" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B74" s="18"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="20"/>
+      <c r="B74" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C74" s="19">
+        <v>44341</v>
+      </c>
+      <c r="D74" s="20">
+        <v>20</v>
+      </c>
       <c r="E74" s="22"/>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B75" s="18"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="20"/>
-      <c r="E75" s="22"/>
+      <c r="B75" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C75" s="19">
+        <v>44341</v>
+      </c>
+      <c r="D75" s="20">
+        <v>20</v>
+      </c>
+      <c r="E75" s="22" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B76" s="18"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="20"/>
-      <c r="E76" s="22"/>
+      <c r="B76" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C76" s="19">
+        <v>44341</v>
+      </c>
+      <c r="D76" s="20">
+        <v>30</v>
+      </c>
+      <c r="E76" s="22" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B77" s="18"/>

--- a/Documentation/Journal de bord TPI.xlsx
+++ b/Documentation/Journal de bord TPI.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="122">
   <si>
     <t>Date</t>
   </si>
@@ -401,6 +401,21 @@
   </si>
   <si>
     <t>Le changement de jours a semaine a mois, etc..</t>
+  </si>
+  <si>
+    <t>Codage du popup si l'event est bientôt</t>
+  </si>
+  <si>
+    <t>Codage du popup si l'event est maintenant</t>
+  </si>
+  <si>
+    <t>Codage de l'ajout d'une recurrence</t>
+  </si>
+  <si>
+    <t>Avant la recurence était afficher mais pas mis dans la table event-recurrence</t>
+  </si>
+  <si>
+    <t>Codage de l'affichage des reccurences</t>
   </si>
 </sst>
 </file>
@@ -443,7 +458,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -590,20 +605,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -631,18 +637,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1081,10 +1075,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:E82"/>
+  <dimension ref="B1:F86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1114,7 +1108,7 @@
       </c>
     </row>
     <row r="3" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="5">
@@ -1123,12 +1117,12 @@
       <c r="D3" s="6">
         <v>45</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="19" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="10">
@@ -1137,7 +1131,7 @@
       <c r="D4" s="11">
         <v>45</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="18" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1151,7 +1145,7 @@
       <c r="D5" s="9">
         <v>60</v>
       </c>
-      <c r="E5" s="22"/>
+      <c r="E5" s="18"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
@@ -1163,7 +1157,7 @@
       <c r="D6" s="9">
         <v>120</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="18" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1177,7 +1171,7 @@
       <c r="D7" s="9">
         <v>60</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="18" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1191,10 +1185,10 @@
       <c r="D8" s="9">
         <v>60</v>
       </c>
-      <c r="E8" s="22"/>
+      <c r="E8" s="18"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="8">
@@ -1203,7 +1197,7 @@
       <c r="D9" s="9">
         <v>40</v>
       </c>
-      <c r="E9" s="22"/>
+      <c r="E9" s="18"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
@@ -1215,10 +1209,10 @@
       <c r="D10" s="9">
         <v>25</v>
       </c>
-      <c r="E10" s="22"/>
+      <c r="E10" s="18"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="8">
@@ -1227,10 +1221,10 @@
       <c r="D11" s="9">
         <v>60</v>
       </c>
-      <c r="E11" s="22"/>
+      <c r="E11" s="18"/>
     </row>
     <row r="12" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="8">
@@ -1239,7 +1233,7 @@
       <c r="D12" s="9">
         <v>120</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="18" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1253,10 +1247,10 @@
       <c r="D13" s="9">
         <v>40</v>
       </c>
-      <c r="E13" s="22"/>
+      <c r="E13" s="18"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="8">
@@ -1265,12 +1259,12 @@
       <c r="D14" s="9">
         <v>120</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="18" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="8">
@@ -1279,7 +1273,7 @@
       <c r="D15" s="9">
         <v>40</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="18" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1293,12 +1287,12 @@
       <c r="D16" s="9">
         <v>15</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="18" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="8">
@@ -1307,12 +1301,12 @@
       <c r="D17" s="9">
         <v>180</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="18" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="8">
@@ -1321,12 +1315,12 @@
       <c r="D18" s="9">
         <v>10</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="8">
@@ -1335,10 +1329,10 @@
       <c r="D19" s="9">
         <v>60</v>
       </c>
-      <c r="E19" s="22"/>
+      <c r="E19" s="18"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="8">
@@ -1347,12 +1341,12 @@
       <c r="D20" s="9">
         <v>120</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="18" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="8">
@@ -1361,12 +1355,12 @@
       <c r="D21" s="9">
         <v>60</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="18" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="8">
@@ -1375,12 +1369,12 @@
       <c r="D22" s="9">
         <v>60</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="18" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="8">
@@ -1389,12 +1383,12 @@
       <c r="D23" s="9">
         <v>30</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="18" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C24" s="8">
@@ -1403,12 +1397,12 @@
       <c r="D24" s="9">
         <v>60</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="18" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C25" s="8">
@@ -1417,12 +1411,12 @@
       <c r="D25" s="9">
         <v>60</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C26" s="8">
@@ -1431,10 +1425,10 @@
       <c r="D26" s="9">
         <v>60</v>
       </c>
-      <c r="E26" s="22"/>
+      <c r="E26" s="18"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="8">
@@ -1443,10 +1437,10 @@
       <c r="D27" s="9">
         <v>60</v>
       </c>
-      <c r="E27" s="22"/>
+      <c r="E27" s="18"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C28" s="8">
@@ -1455,7 +1449,7 @@
       <c r="D28" s="9">
         <v>30</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="18" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1474,7 +1468,7 @@
       </c>
     </row>
     <row r="30" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="14" t="s">
         <v>33</v>
       </c>
       <c r="C30" s="8">
@@ -1483,12 +1477,12 @@
       <c r="D30" s="9">
         <v>120</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="E30" s="18" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="14" t="s">
         <v>50</v>
       </c>
       <c r="C31" s="8">
@@ -1497,7 +1491,7 @@
       <c r="D31" s="9">
         <v>60</v>
       </c>
-      <c r="E31" s="22"/>
+      <c r="E31" s="18"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="7" t="s">
@@ -1509,101 +1503,101 @@
       <c r="D32" s="9">
         <v>30</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E32" s="18" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="19">
+      <c r="C33" s="15">
         <v>44327</v>
       </c>
-      <c r="D33" s="20">
+      <c r="D33" s="16">
         <v>30</v>
       </c>
-      <c r="E33" s="22"/>
+      <c r="E33" s="18"/>
     </row>
     <row r="34" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="19">
+      <c r="C34" s="15">
         <v>44327</v>
       </c>
-      <c r="D34" s="20">
+      <c r="D34" s="16">
         <v>30</v>
       </c>
-      <c r="E34" s="22"/>
+      <c r="E34" s="18"/>
     </row>
     <row r="35" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="19">
+      <c r="C35" s="15">
         <v>44327</v>
       </c>
-      <c r="D35" s="20">
+      <c r="D35" s="16">
         <v>15</v>
       </c>
-      <c r="E35" s="22" t="s">
+      <c r="E35" s="18" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C36" s="19">
+      <c r="C36" s="15">
         <v>44327</v>
       </c>
-      <c r="D36" s="20">
+      <c r="D36" s="16">
         <v>30</v>
       </c>
-      <c r="E36" s="22" t="s">
+      <c r="E36" s="18" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="19">
+      <c r="C37" s="15">
         <v>44327</v>
       </c>
-      <c r="D37" s="20">
-        <v>60</v>
-      </c>
-      <c r="E37" s="22" t="s">
+      <c r="D37" s="16">
+        <v>60</v>
+      </c>
+      <c r="E37" s="18" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="38" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="19">
+      <c r="C38" s="15">
         <v>44327</v>
       </c>
-      <c r="D38" s="20">
+      <c r="D38" s="16">
         <v>30</v>
       </c>
-      <c r="E38" s="22" t="s">
+      <c r="E38" s="18" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="39" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B39" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C39" s="19">
+      <c r="B39" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="15">
         <v>44327</v>
       </c>
-      <c r="D39" s="20">
+      <c r="D39" s="16">
         <v>120</v>
       </c>
-      <c r="E39" s="22" t="s">
+      <c r="E39" s="18" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1611,19 +1605,19 @@
       <c r="B40" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C40" s="19">
+      <c r="C40" s="15">
         <v>44327</v>
       </c>
       <c r="D40" s="9">
         <v>30</v>
       </c>
-      <c r="E40" s="22"/>
+      <c r="E40" s="18"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C41" s="19">
+      <c r="C41" s="15">
         <v>44327</v>
       </c>
       <c r="D41" s="9">
@@ -1635,221 +1629,221 @@
       <c r="B42" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C42" s="19">
+      <c r="C42" s="15">
         <v>44327</v>
       </c>
       <c r="D42" s="9">
         <v>15</v>
       </c>
-      <c r="E42" s="22" t="s">
+      <c r="E42" s="18" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C43" s="19">
+      <c r="C43" s="15">
         <v>44333</v>
       </c>
-      <c r="D43" s="20">
-        <v>60</v>
-      </c>
-      <c r="E43" s="22"/>
+      <c r="D43" s="16">
+        <v>60</v>
+      </c>
+      <c r="E43" s="18"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C44" s="19">
+      <c r="C44" s="15">
         <v>44333</v>
       </c>
-      <c r="D44" s="20">
+      <c r="D44" s="16">
         <v>120</v>
       </c>
-      <c r="E44" s="22"/>
+      <c r="E44" s="18"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C45" s="19">
+      <c r="C45" s="15">
         <v>44333</v>
       </c>
-      <c r="D45" s="20">
-        <v>60</v>
-      </c>
-      <c r="E45" s="22" t="s">
+      <c r="D45" s="16">
+        <v>60</v>
+      </c>
+      <c r="E45" s="18" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C46" s="19">
+      <c r="C46" s="15">
         <v>44333</v>
       </c>
-      <c r="D46" s="20">
+      <c r="D46" s="16">
         <v>15</v>
       </c>
-      <c r="E46" s="22" t="s">
+      <c r="E46" s="18" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="47" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C47" s="19">
+      <c r="C47" s="15">
         <v>44333</v>
       </c>
-      <c r="D47" s="20">
+      <c r="D47" s="16">
         <v>120</v>
       </c>
-      <c r="E47" s="22" t="s">
+      <c r="E47" s="18" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="48" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C48" s="19">
+      <c r="C48" s="15">
         <v>44333</v>
       </c>
-      <c r="D48" s="20">
-        <v>60</v>
-      </c>
-      <c r="E48" s="22"/>
+      <c r="D48" s="16">
+        <v>60</v>
+      </c>
+      <c r="E48" s="18"/>
     </row>
     <row r="49" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C49" s="19">
+      <c r="C49" s="15">
         <v>44333</v>
       </c>
-      <c r="D49" s="20">
+      <c r="D49" s="16">
         <v>30</v>
       </c>
-      <c r="E49" s="22"/>
+      <c r="E49" s="18"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C50" s="19">
+      <c r="C50" s="15">
         <v>44333</v>
       </c>
-      <c r="D50" s="20">
+      <c r="D50" s="16">
         <v>10</v>
       </c>
-      <c r="E50" s="22" t="s">
+      <c r="E50" s="18" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="51" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C51" s="19">
+      <c r="C51" s="15">
         <v>44334</v>
       </c>
-      <c r="D51" s="20">
+      <c r="D51" s="16">
         <v>120</v>
       </c>
-      <c r="E51" s="22"/>
+      <c r="E51" s="18"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C52" s="19">
+      <c r="C52" s="15">
         <v>44334</v>
       </c>
-      <c r="D52" s="20">
+      <c r="D52" s="16">
         <v>30</v>
       </c>
-      <c r="E52" s="22" t="s">
+      <c r="E52" s="18" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="53" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C53" s="19">
+      <c r="C53" s="15">
         <v>44334</v>
       </c>
-      <c r="D53" s="20">
+      <c r="D53" s="16">
         <v>30</v>
       </c>
-      <c r="E53" s="22"/>
+      <c r="E53" s="18"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C54" s="19">
+      <c r="C54" s="15">
         <v>44334</v>
       </c>
-      <c r="D54" s="20">
-        <v>60</v>
-      </c>
-      <c r="E54" s="22" t="s">
+      <c r="D54" s="16">
+        <v>60</v>
+      </c>
+      <c r="E54" s="18" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="18" t="s">
+      <c r="B55" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="C55" s="19">
+      <c r="C55" s="15">
         <v>44334</v>
       </c>
-      <c r="D55" s="20">
-        <v>60</v>
-      </c>
-      <c r="E55" s="22"/>
+      <c r="D55" s="16">
+        <v>60</v>
+      </c>
+      <c r="E55" s="18"/>
     </row>
     <row r="56" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B56" s="18" t="s">
+      <c r="B56" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C56" s="19">
+      <c r="C56" s="15">
         <v>44334</v>
       </c>
-      <c r="D56" s="20">
-        <v>60</v>
-      </c>
-      <c r="E56" s="22" t="s">
+      <c r="D56" s="16">
+        <v>60</v>
+      </c>
+      <c r="E56" s="18" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B57" s="18" t="s">
+      <c r="B57" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C57" s="19">
+      <c r="C57" s="15">
         <v>44334</v>
       </c>
-      <c r="D57" s="20">
-        <v>60</v>
-      </c>
-      <c r="E57" s="22"/>
+      <c r="D57" s="16">
+        <v>60</v>
+      </c>
+      <c r="E57" s="18"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="18" t="s">
+      <c r="B58" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C58" s="19">
+      <c r="C58" s="15">
         <v>44336</v>
       </c>
-      <c r="D58" s="20">
+      <c r="D58" s="16">
         <v>120</v>
       </c>
-      <c r="E58" s="22" t="s">
+      <c r="E58" s="18" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1857,155 +1851,155 @@
       <c r="B59" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C59" s="19">
+      <c r="C59" s="15">
         <v>44336</v>
       </c>
       <c r="D59" s="9">
         <v>60</v>
       </c>
-      <c r="E59" s="22" t="s">
+      <c r="E59" s="18" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="18" t="s">
+      <c r="B60" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C60" s="19">
+      <c r="C60" s="15">
         <v>44336</v>
       </c>
-      <c r="D60" s="20">
+      <c r="D60" s="16">
         <v>30</v>
       </c>
-      <c r="E60" s="22"/>
+      <c r="E60" s="18"/>
     </row>
     <row r="61" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B61" s="18" t="s">
+      <c r="B61" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C61" s="19">
+      <c r="C61" s="15">
         <v>44336</v>
       </c>
-      <c r="D61" s="20">
+      <c r="D61" s="16">
         <v>120</v>
       </c>
-      <c r="E61" s="22" t="s">
+      <c r="E61" s="18" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="62" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B62" s="18" t="s">
+      <c r="B62" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="C62" s="19">
+      <c r="C62" s="15">
         <v>44336</v>
       </c>
-      <c r="D62" s="20">
+      <c r="D62" s="16">
         <v>30</v>
       </c>
-      <c r="E62" s="22"/>
+      <c r="E62" s="18"/>
     </row>
     <row r="63" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B63" s="18" t="s">
+      <c r="B63" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="C63" s="19">
+      <c r="C63" s="15">
         <v>44336</v>
       </c>
-      <c r="D63" s="20">
-        <v>60</v>
-      </c>
-      <c r="E63" s="22"/>
+      <c r="D63" s="16">
+        <v>60</v>
+      </c>
+      <c r="E63" s="18"/>
     </row>
     <row r="64" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B64" s="18" t="s">
+      <c r="B64" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="C64" s="19">
+      <c r="C64" s="15">
         <v>44336</v>
       </c>
-      <c r="D64" s="20">
-        <v>60</v>
-      </c>
-      <c r="E64" s="22" t="s">
+      <c r="D64" s="16">
+        <v>60</v>
+      </c>
+      <c r="E64" s="18" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B65" s="18" t="s">
+      <c r="B65" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C65" s="19">
+      <c r="C65" s="15">
         <v>44337</v>
       </c>
-      <c r="D65" s="20">
+      <c r="D65" s="16">
         <v>90</v>
       </c>
-      <c r="E65" s="22"/>
+      <c r="E65" s="18"/>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B66" s="18" t="s">
+      <c r="B66" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C66" s="19">
+      <c r="C66" s="15">
         <v>44337</v>
       </c>
-      <c r="D66" s="20">
-        <v>60</v>
-      </c>
-      <c r="E66" s="22"/>
+      <c r="D66" s="16">
+        <v>60</v>
+      </c>
+      <c r="E66" s="18"/>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B67" s="18" t="s">
+      <c r="B67" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="C67" s="19">
+      <c r="C67" s="15">
         <v>44337</v>
       </c>
-      <c r="D67" s="20">
+      <c r="D67" s="16">
         <v>30</v>
       </c>
-      <c r="E67" s="22" t="s">
+      <c r="E67" s="18" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B68" s="18" t="s">
+      <c r="B68" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="C68" s="19">
+      <c r="C68" s="15">
         <v>44341</v>
       </c>
-      <c r="D68" s="20">
+      <c r="D68" s="16">
         <v>20</v>
       </c>
-      <c r="E68" s="22" t="s">
+      <c r="E68" s="18" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="69" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B69" s="18" t="s">
+      <c r="B69" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="C69" s="19">
+      <c r="C69" s="15">
         <v>44341</v>
       </c>
-      <c r="D69" s="20">
-        <v>60</v>
-      </c>
-      <c r="E69" s="22"/>
+      <c r="D69" s="16">
+        <v>60</v>
+      </c>
+      <c r="E69" s="18"/>
     </row>
     <row r="70" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B70" s="18" t="s">
+      <c r="B70" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="C70" s="19">
+      <c r="C70" s="15">
         <v>44341</v>
       </c>
-      <c r="D70" s="20">
-        <v>60</v>
-      </c>
-      <c r="E70" s="22" t="s">
+      <c r="D70" s="16">
+        <v>60</v>
+      </c>
+      <c r="E70" s="18" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2013,117 +2007,168 @@
       <c r="B71" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C71" s="19">
+      <c r="C71" s="15">
         <v>44341</v>
       </c>
       <c r="D71" s="9">
         <v>60</v>
       </c>
-      <c r="E71" s="22" t="s">
+      <c r="E71" s="18" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="72" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B72" s="18" t="s">
+      <c r="B72" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="C72" s="19">
+      <c r="C72" s="15">
         <v>44341</v>
       </c>
-      <c r="D72" s="20">
+      <c r="D72" s="16">
         <v>30</v>
       </c>
-      <c r="E72" s="22"/>
+      <c r="E72" s="18"/>
     </row>
     <row r="73" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B73" s="18" t="s">
+      <c r="B73" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="C73" s="19">
+      <c r="C73" s="15">
         <v>44341</v>
       </c>
-      <c r="D73" s="20">
-        <v>60</v>
-      </c>
-      <c r="E73" s="22" t="s">
+      <c r="D73" s="16">
+        <v>60</v>
+      </c>
+      <c r="E73" s="18" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B74" s="18" t="s">
+      <c r="B74" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C74" s="19">
+      <c r="C74" s="15">
         <v>44341</v>
       </c>
-      <c r="D74" s="20">
+      <c r="D74" s="16">
         <v>20</v>
       </c>
-      <c r="E74" s="22"/>
+      <c r="E74" s="18"/>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B75" s="18" t="s">
+      <c r="B75" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="C75" s="19">
+      <c r="C75" s="15">
         <v>44341</v>
       </c>
-      <c r="D75" s="20">
+      <c r="D75" s="16">
         <v>20</v>
       </c>
-      <c r="E75" s="22" t="s">
+      <c r="E75" s="18" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B76" s="18" t="s">
+      <c r="B76" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="C76" s="19">
+      <c r="C76" s="15">
         <v>44341</v>
       </c>
-      <c r="D76" s="20">
+      <c r="D76" s="16">
         <v>30</v>
       </c>
-      <c r="E76" s="22" t="s">
+      <c r="E76" s="18" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B77" s="18"/>
-      <c r="C77" s="19"/>
-      <c r="D77" s="20"/>
-      <c r="E77" s="22"/>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B78" s="18"/>
-      <c r="C78" s="19"/>
-      <c r="D78" s="20"/>
-      <c r="E78" s="22"/>
+    <row r="77" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B77" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C77" s="15">
+        <v>44343</v>
+      </c>
+      <c r="D77" s="16">
+        <v>120</v>
+      </c>
+      <c r="E77" s="18"/>
+    </row>
+    <row r="78" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B78" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C78" s="15">
+        <v>44343</v>
+      </c>
+      <c r="D78" s="16">
+        <v>120</v>
+      </c>
+      <c r="E78" s="18"/>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B79" s="18"/>
-      <c r="C79" s="19"/>
-      <c r="D79" s="20"/>
-      <c r="E79" s="4"/>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B80" s="18"/>
-      <c r="C80" s="19"/>
-      <c r="D80" s="20"/>
+      <c r="B79" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C79" s="15">
+        <v>44344</v>
+      </c>
+      <c r="D79" s="16">
+        <v>120</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B80" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C80" s="15">
+        <v>44344</v>
+      </c>
+      <c r="D80" s="16">
+        <v>90</v>
+      </c>
       <c r="E80" s="4"/>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B81" s="21"/>
-      <c r="C81" s="21"/>
-      <c r="D81" s="21"/>
-      <c r="E81" s="21"/>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B82" s="12"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="15"/>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B81" s="17"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="17"/>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C82" s="17"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C83" s="17"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="17"/>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="17"/>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C85" s="17"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="17"/>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C86" s="17"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Journal de bord TPI.xlsx
+++ b/Documentation/Journal de bord TPI.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="130">
   <si>
     <t>Date</t>
   </si>
@@ -416,6 +416,30 @@
   </si>
   <si>
     <t>Codage de l'affichage des reccurences</t>
+  </si>
+  <si>
+    <t>Sprint review 3</t>
+  </si>
+  <si>
+    <t>Sprint review avec le chef de projet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correction d'un bug d'update d'event </t>
+  </si>
+  <si>
+    <t>Suite a la sprint review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correction d'un bug de delete d'event </t>
+  </si>
+  <si>
+    <t>Suite a la sprint review, ajout de la possibilité de pouvoir delete un event/une recurrence ou event + recurrence</t>
+  </si>
+  <si>
+    <t>Ajout d'un nombre de jour choisissable pour les recurrences</t>
+  </si>
+  <si>
+    <t>Ajout des jours de dates soulignées si nous avons un evenement ce jour</t>
   </si>
 </sst>
 </file>
@@ -458,7 +482,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -605,11 +629,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -660,6 +719,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -797,8 +868,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="B2:E81" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="B2:E81"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="B2:E100" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="B2:E100"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Tâche" dataDxfId="3"/>
     <tableColumn id="3" name="Date" dataDxfId="2"/>
@@ -1075,10 +1146,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:F86"/>
+  <dimension ref="B1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2134,41 +2205,170 @@
       <c r="E80" s="4"/>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B81" s="17"/>
-      <c r="C81" s="17"/>
-      <c r="D81" s="17"/>
-      <c r="E81" s="17"/>
+      <c r="B81" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C81" s="15">
+        <v>44347</v>
+      </c>
+      <c r="D81" s="16">
+        <v>60</v>
+      </c>
+      <c r="E81" s="20" t="s">
+        <v>123</v>
+      </c>
       <c r="F81" s="17"/>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C82" s="17"/>
-      <c r="D82" s="17"/>
-      <c r="E82" s="17"/>
+      <c r="B82" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C82" s="15">
+        <v>44347</v>
+      </c>
+      <c r="D82" s="16">
+        <v>20</v>
+      </c>
+      <c r="E82" s="18" t="s">
+        <v>125</v>
+      </c>
       <c r="F82" s="17"/>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C83" s="17"/>
-      <c r="D83" s="17"/>
-      <c r="E83" s="17"/>
+    <row r="83" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B83" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C83" s="15">
+        <v>44347</v>
+      </c>
+      <c r="D83" s="16">
+        <v>120</v>
+      </c>
+      <c r="E83" s="18" t="s">
+        <v>127</v>
+      </c>
       <c r="F83" s="17"/>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C84" s="17"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="17"/>
+    <row r="84" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B84" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C84" s="15">
+        <v>44347</v>
+      </c>
+      <c r="D84" s="16">
+        <v>60</v>
+      </c>
+      <c r="E84" s="18" t="s">
+        <v>125</v>
+      </c>
       <c r="F84" s="17"/>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C85" s="17"/>
-      <c r="D85" s="17"/>
-      <c r="E85" s="17"/>
+    <row r="85" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B85" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C85" s="15">
+        <v>44347</v>
+      </c>
+      <c r="D85" s="16">
+        <v>120</v>
+      </c>
+      <c r="E85" s="18" t="s">
+        <v>125</v>
+      </c>
       <c r="F85" s="17"/>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C86" s="17"/>
-      <c r="D86" s="17"/>
-      <c r="E86" s="17"/>
+      <c r="B86" s="14"/>
+      <c r="C86" s="15"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="18"/>
       <c r="F86" s="17"/>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B87" s="14"/>
+      <c r="C87" s="15"/>
+      <c r="D87" s="16"/>
+      <c r="E87" s="18"/>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B88" s="14"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="18"/>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B89" s="14"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="18"/>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B90" s="14"/>
+      <c r="C90" s="15"/>
+      <c r="D90" s="16"/>
+      <c r="E90" s="18"/>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B91" s="14"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="18"/>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B92" s="14"/>
+      <c r="C92" s="15"/>
+      <c r="D92" s="16"/>
+      <c r="E92" s="18"/>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B93" s="14"/>
+      <c r="C93" s="15"/>
+      <c r="D93" s="16"/>
+      <c r="E93" s="18"/>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B94" s="14"/>
+      <c r="C94" s="15"/>
+      <c r="D94" s="16"/>
+      <c r="E94" s="18"/>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B95" s="14"/>
+      <c r="C95" s="15"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="18"/>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B96" s="14"/>
+      <c r="C96" s="15"/>
+      <c r="D96" s="16"/>
+      <c r="E96" s="18"/>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B97" s="14"/>
+      <c r="C97" s="15"/>
+      <c r="D97" s="16"/>
+      <c r="E97" s="18"/>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B98" s="14"/>
+      <c r="C98" s="15"/>
+      <c r="D98" s="16"/>
+      <c r="E98" s="18"/>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B99" s="14"/>
+      <c r="C99" s="15"/>
+      <c r="D99" s="16"/>
+      <c r="E99" s="18"/>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B100" s="22"/>
+      <c r="C100" s="23"/>
+      <c r="D100" s="16"/>
+      <c r="E100" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Journal de bord TPI.xlsx
+++ b/Documentation/Journal de bord TPI.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="135">
   <si>
     <t>Date</t>
   </si>
@@ -440,6 +440,21 @@
   </si>
   <si>
     <t>Ajout des jours de dates soulignées si nous avons un evenement ce jour</t>
+  </si>
+  <si>
+    <t>Partie 4 Realisation</t>
+  </si>
+  <si>
+    <t>Resumé du TPI</t>
+  </si>
+  <si>
+    <t>Creation du Manuel d'utilisation</t>
+  </si>
+  <si>
+    <t>Creation du Manuel d'installation</t>
+  </si>
+  <si>
+    <t>Fini</t>
   </si>
 </sst>
 </file>
@@ -1149,7 +1164,7 @@
   <dimension ref="B1:F100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2280,29 +2295,59 @@
       <c r="F85" s="17"/>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B86" s="14"/>
-      <c r="C86" s="15"/>
-      <c r="D86" s="16"/>
-      <c r="E86" s="18"/>
+      <c r="B86" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C86" s="15">
+        <v>44348</v>
+      </c>
+      <c r="D86" s="16">
+        <v>120</v>
+      </c>
+      <c r="E86" s="18" t="s">
+        <v>130</v>
+      </c>
       <c r="F86" s="17"/>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B87" s="14"/>
-      <c r="C87" s="15"/>
-      <c r="D87" s="16"/>
+      <c r="B87" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C87" s="15">
+        <v>44348</v>
+      </c>
+      <c r="D87" s="16">
+        <v>120</v>
+      </c>
       <c r="E87" s="18"/>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B88" s="14"/>
-      <c r="C88" s="15"/>
-      <c r="D88" s="16"/>
-      <c r="E88" s="18"/>
+      <c r="B88" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C88" s="15">
+        <v>44348</v>
+      </c>
+      <c r="D88" s="16">
+        <v>80</v>
+      </c>
+      <c r="E88" s="18" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B89" s="14"/>
-      <c r="C89" s="15"/>
-      <c r="D89" s="16"/>
-      <c r="E89" s="18"/>
+      <c r="B89" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C89" s="15">
+        <v>44348</v>
+      </c>
+      <c r="D89" s="16">
+        <v>60</v>
+      </c>
+      <c r="E89" s="18" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B90" s="14"/>

--- a/Documentation/Journal de bord TPI.xlsx
+++ b/Documentation/Journal de bord TPI.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="143">
   <si>
     <t>Date</t>
   </si>
@@ -89,9 +89,6 @@
     <t>Ecriture du mail d'envoie des PDF</t>
   </si>
   <si>
-    <t>Cela m'a pris pas mal de temps, J'ai fais les maquettes pour l'acceuil, Mon calendrier vue mois et semaine, modifier/ajouter évènement, contact, login, register, profil</t>
-  </si>
-  <si>
     <t>Discussion avec le chef de projet</t>
   </si>
   <si>
@@ -185,30 +182,18 @@
     <t>Diagramme de code pour ajouter un évènement</t>
   </si>
   <si>
-    <t>Charte graphique + 2-3 autres points</t>
-  </si>
-  <si>
     <t>Diagramme de code pour modifier un évènement</t>
   </si>
   <si>
     <t>Diagramme de code pour supprimer un évènement</t>
   </si>
   <si>
-    <t>Modification de 2-3 trucs</t>
-  </si>
-  <si>
     <t>Reprise du debut de code du calendrier et mise a niveau des couleurs avec la charte graphique de la doc</t>
   </si>
   <si>
-    <t>Couleur + petite adaptation aux besoins</t>
-  </si>
-  <si>
     <t>Mise en place de l'hebergement</t>
   </si>
   <si>
-    <t>Discussion avec le chef de projet + ajout du site vitrine sur swisscenter</t>
-  </si>
-  <si>
     <t>Ajout des diagramme dans la documentation</t>
   </si>
   <si>
@@ -218,18 +203,12 @@
     <t>Pas encore au points a cause de tout ce qu'il faut retoucher. Ex: name des label du template, redirection, etc..</t>
   </si>
   <si>
-    <t>Sprint 2 fini a partir d'ici</t>
-  </si>
-  <si>
     <t>Rétrospective sprint 2</t>
   </si>
   <si>
     <t>Preparation de l'envoi du mail</t>
   </si>
   <si>
-    <t>Rendu hebdomadaire</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mise en page du word + journal de bord </t>
   </si>
   <si>
@@ -242,24 +221,15 @@
     <t>Ajustement visuel du login</t>
   </si>
   <si>
-    <t>avec une case d'erreur si la connexion echoue</t>
-  </si>
-  <si>
     <t>finission du login</t>
   </si>
   <si>
     <t xml:space="preserve">Ajout du calendrier trouver en exemple </t>
   </si>
   <si>
-    <t>en plus de tout les ajustement a faire des noms des variables du decorticage du php dans l'html, et de mettre le tout en structure MVC</t>
-  </si>
-  <si>
     <t>Aide apporté a un camarade</t>
   </si>
   <si>
-    <t>Jérôme jaquemet avait besoin d'aide pour l'élaboration des regles de sont TPI</t>
-  </si>
-  <si>
     <t xml:space="preserve">Decorticage en profondeur du code du calendrier </t>
   </si>
   <si>
@@ -272,18 +242,12 @@
     <t>Sprint 2 review</t>
   </si>
   <si>
-    <t>Avec le chef de projet</t>
-  </si>
-  <si>
     <t>Fonction du bouton aujourd'hui et fonctionel</t>
   </si>
   <si>
     <t>Ajout d'une fonction sur le calendrier</t>
   </si>
   <si>
-    <t>Quand il s'affiche, le jour d'aujourd'hui est d'une couleur differente</t>
-  </si>
-  <si>
     <t>Date du jour en surbrillance</t>
   </si>
   <si>
@@ -299,24 +263,15 @@
     <t>Ajout d'un evenement</t>
   </si>
   <si>
-    <t>Fonction d'ajout d'un evenement</t>
-  </si>
-  <si>
     <t>Visite du deuxieme expert</t>
   </si>
   <si>
     <t>Reglage d'un bug sur le calendrier</t>
   </si>
   <si>
-    <t>Le jour d'aujourd'hui était en jaune meme au autre mois et année</t>
-  </si>
-  <si>
     <t>Bug d'ajout d'un evenement</t>
   </si>
   <si>
-    <t>La query était juste mais ne marchait pas. Il a fallut des essais dans tout les sens pour voir que la copie de la BD s'etais mal faite et que l'ID était pas en auto incrementation</t>
-  </si>
-  <si>
     <t>Creation de la fonction delete un event</t>
   </si>
   <si>
@@ -326,9 +281,6 @@
     <t>Ajout d'une fonctionalité sur la gestion de date</t>
   </si>
   <si>
-    <t>Quand on clique pour gerer une date, si plusieurs evenement ont été ajouter, on peut tous les voir</t>
-  </si>
-  <si>
     <t>Fonction modifier</t>
   </si>
   <si>
@@ -342,9 +294,6 @@
   </si>
   <si>
     <t>Reglage d'un bug de log in sur le server</t>
-  </si>
-  <si>
-    <t>Il était déjà present au moment du livrable</t>
   </si>
   <si>
     <t>Buton supprimer a continuer de coder</t>
@@ -394,9 +343,6 @@
     <t>Update du git</t>
   </si>
   <si>
-    <t>ajout d'une release</t>
-  </si>
-  <si>
     <t>Ajout d'une future feature</t>
   </si>
   <si>
@@ -412,39 +358,24 @@
     <t>Codage de l'ajout d'une recurrence</t>
   </si>
   <si>
-    <t>Avant la recurence était afficher mais pas mis dans la table event-recurrence</t>
-  </si>
-  <si>
     <t>Codage de l'affichage des reccurences</t>
   </si>
   <si>
     <t>Sprint review 3</t>
   </si>
   <si>
-    <t>Sprint review avec le chef de projet</t>
-  </si>
-  <si>
     <t xml:space="preserve">Correction d'un bug d'update d'event </t>
   </si>
   <si>
-    <t>Suite a la sprint review</t>
-  </si>
-  <si>
     <t xml:space="preserve">Correction d'un bug de delete d'event </t>
   </si>
   <si>
-    <t>Suite a la sprint review, ajout de la possibilité de pouvoir delete un event/une recurrence ou event + recurrence</t>
-  </si>
-  <si>
     <t>Ajout d'un nombre de jour choisissable pour les recurrences</t>
   </si>
   <si>
     <t>Ajout des jours de dates soulignées si nous avons un evenement ce jour</t>
   </si>
   <si>
-    <t>Partie 4 Realisation</t>
-  </si>
-  <si>
     <t>Resumé du TPI</t>
   </si>
   <si>
@@ -454,7 +385,100 @@
     <t>Creation du Manuel d'installation</t>
   </si>
   <si>
-    <t>Fini</t>
+    <t>Documentation Doxygen</t>
+  </si>
+  <si>
+    <t>Generation du Doxygen + modification pour que cela aille en adequation avec mon projet.</t>
+  </si>
+  <si>
+    <t>Mise en page au propre de la documentation</t>
+  </si>
+  <si>
+    <t>Relecture des commentaires mis dans le code</t>
+  </si>
+  <si>
+    <t>Relecture en entier du code.</t>
+  </si>
+  <si>
+    <t>Finissage du point 4.</t>
+  </si>
+  <si>
+    <t>Fini.</t>
+  </si>
+  <si>
+    <t>Partie 4 Realisation.</t>
+  </si>
+  <si>
+    <t>Suite a la sprint review.</t>
+  </si>
+  <si>
+    <t>Suite a la sprint review, ajout de la possibilité de pouvoir delete un event/une recurrence ou event + recurrence.</t>
+  </si>
+  <si>
+    <t>Sprint review avec le chef de projet.</t>
+  </si>
+  <si>
+    <t>Avant la recurence était afficher mais pas mis dans la table event-recurrence.</t>
+  </si>
+  <si>
+    <t>Ajout d'une release.</t>
+  </si>
+  <si>
+    <t>Il était déjà present au moment du livrable.</t>
+  </si>
+  <si>
+    <t>Quand on clique pour gerer une date, si plusieurs evenement ont été ajouter, on peut tous les voir.</t>
+  </si>
+  <si>
+    <t>La query était juste mais ne marchait pas. Il a fallut des essais dans tout les sens pour voir que la copie de la BD s'etais mal faite et que l'ID était pas en auto incrementation.</t>
+  </si>
+  <si>
+    <t>Le jour d'aujourd'hui était en jaune meme au autre mois et année.</t>
+  </si>
+  <si>
+    <t>Fonction d'ajout d'un evenement.</t>
+  </si>
+  <si>
+    <t>Quand il s'affiche, le jour d'aujourd'hui est d'une couleur differente.</t>
+  </si>
+  <si>
+    <t>Avec le chef de projet.</t>
+  </si>
+  <si>
+    <t>Jérôme jaquemet avait besoin d'aide pour l'élaboration des regles de sont TPI.</t>
+  </si>
+  <si>
+    <t>en plus de tout les ajustement a faire des noms des variables du decorticage du php dans l'html, et de mettre le tout en structure MVC.</t>
+  </si>
+  <si>
+    <t>Avec une case d'erreur si la connexion echoue.</t>
+  </si>
+  <si>
+    <t>Rendu hebdomadaire.</t>
+  </si>
+  <si>
+    <t>Sprint 2 fini a partir d'ici.</t>
+  </si>
+  <si>
+    <t>Discussion avec le chef de projet + ajout du site vitrine sur swisscenter.</t>
+  </si>
+  <si>
+    <t>Couleur + petite adaptation aux besoins.</t>
+  </si>
+  <si>
+    <t>Modification de 2-3 trucs.</t>
+  </si>
+  <si>
+    <t>Charte graphique + 2-3 autres points.</t>
+  </si>
+  <si>
+    <t>Cela m'a pris pas mal de temps, J'ai fais les maquettes pour l'acceuil, Mon calendrier vue mois et semaine, modifier/ajouter évènement, contact, login, register, profil.</t>
+  </si>
+  <si>
+    <t>Ecriture du mail d'envoie final</t>
+  </si>
+  <si>
+    <t>Correction d'un bug d'affichage uniquement present sur le server</t>
   </si>
 </sst>
 </file>
@@ -1163,8 +1187,8 @@
   </sheetPr>
   <dimension ref="B1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D90" sqref="D90"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1204,7 +1228,7 @@
         <v>45</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
@@ -1218,7 +1242,7 @@
         <v>45</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
@@ -1244,7 +1268,7 @@
         <v>120</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
@@ -1258,7 +1282,7 @@
         <v>60</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
@@ -1320,7 +1344,7 @@
         <v>120</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
@@ -1346,7 +1370,7 @@
         <v>120</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
@@ -1360,7 +1384,7 @@
         <v>40</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="30" x14ac:dyDescent="0.25">
@@ -1374,7 +1398,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="45" x14ac:dyDescent="0.25">
@@ -1388,12 +1412,12 @@
         <v>180</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="8">
         <v>44322</v>
@@ -1402,12 +1426,12 @@
         <v>10</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="8">
         <v>44322</v>
@@ -1428,12 +1452,12 @@
         <v>120</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" s="8">
         <v>44322</v>
@@ -1442,12 +1466,12 @@
         <v>60</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="75" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="8">
         <v>44323</v>
@@ -1456,12 +1480,12 @@
         <v>60</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" s="8">
         <v>44323</v>
@@ -1470,12 +1494,12 @@
         <v>30</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" s="8">
         <v>44323</v>
@@ -1484,12 +1508,12 @@
         <v>60</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" s="8">
         <v>44323</v>
@@ -1498,12 +1522,12 @@
         <v>60</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="8">
         <v>44326</v>
@@ -1515,7 +1539,7 @@
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27" s="8">
         <v>44326</v>
@@ -1527,7 +1551,7 @@
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28" s="8">
         <v>44326</v>
@@ -1536,12 +1560,12 @@
         <v>30</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C29" s="8">
         <v>44326</v>
@@ -1550,12 +1574,12 @@
         <v>60</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C30" s="8">
         <v>44326</v>
@@ -1564,12 +1588,12 @@
         <v>120</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C31" s="8">
         <v>44326</v>
@@ -1590,12 +1614,12 @@
         <v>30</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>51</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C33" s="15">
         <v>44327</v>
@@ -1607,7 +1631,7 @@
     </row>
     <row r="34" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B34" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C34" s="15">
         <v>44327</v>
@@ -1619,7 +1643,7 @@
     </row>
     <row r="35" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C35" s="15">
         <v>44327</v>
@@ -1628,12 +1652,12 @@
         <v>15</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>54</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B36" s="14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C36" s="15">
         <v>44327</v>
@@ -1642,12 +1666,12 @@
         <v>30</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>56</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C37" s="15">
         <v>44327</v>
@@ -1656,12 +1680,12 @@
         <v>60</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>58</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B38" s="14" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C38" s="15">
         <v>44327</v>
@@ -1670,12 +1694,12 @@
         <v>30</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>62</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C39" s="15">
         <v>44327</v>
@@ -1684,12 +1708,12 @@
         <v>120</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C40" s="15">
         <v>44327</v>
@@ -1701,7 +1725,7 @@
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" s="7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C41" s="15">
         <v>44327</v>
@@ -1713,7 +1737,7 @@
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" s="7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C42" s="15">
         <v>44327</v>
@@ -1722,12 +1746,12 @@
         <v>15</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>65</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" s="14" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C43" s="15">
         <v>44333</v>
@@ -1739,7 +1763,7 @@
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" s="14" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C44" s="15">
         <v>44333</v>
@@ -1751,7 +1775,7 @@
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C45" s="15">
         <v>44333</v>
@@ -1760,12 +1784,12 @@
         <v>60</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>70</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" s="14" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C46" s="15">
         <v>44333</v>
@@ -1774,12 +1798,12 @@
         <v>15</v>
       </c>
       <c r="E46" s="18" t="s">
-        <v>70</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C47" s="15">
         <v>44333</v>
@@ -1788,12 +1812,12 @@
         <v>120</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>73</v>
+        <v>132</v>
       </c>
     </row>
     <row r="48" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="14" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C48" s="15">
         <v>44333</v>
@@ -1805,7 +1829,7 @@
     </row>
     <row r="49" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C49" s="15">
         <v>44333</v>
@@ -1817,7 +1841,7 @@
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" s="14" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C50" s="15">
         <v>44333</v>
@@ -1826,12 +1850,12 @@
         <v>10</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>75</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B51" s="14" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C51" s="15">
         <v>44334</v>
@@ -1843,7 +1867,7 @@
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" s="14" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C52" s="15">
         <v>44334</v>
@@ -1852,12 +1876,12 @@
         <v>30</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B53" s="14" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C53" s="15">
         <v>44334</v>
@@ -1869,7 +1893,7 @@
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" s="14" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C54" s="15">
         <v>44334</v>
@@ -1878,12 +1902,12 @@
         <v>60</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" s="14" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C55" s="15">
         <v>44334</v>
@@ -1895,7 +1919,7 @@
     </row>
     <row r="56" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B56" s="14" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C56" s="15">
         <v>44334</v>
@@ -1904,12 +1928,12 @@
         <v>60</v>
       </c>
       <c r="E56" s="18" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B57" s="14" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C57" s="15">
         <v>44334</v>
@@ -1921,7 +1945,7 @@
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B58" s="14" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C58" s="15">
         <v>44336</v>
@@ -1930,12 +1954,12 @@
         <v>120</v>
       </c>
       <c r="E58" s="18" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C59" s="15">
         <v>44336</v>
@@ -1944,12 +1968,12 @@
         <v>60</v>
       </c>
       <c r="E59" s="18" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B60" s="14" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C60" s="15">
         <v>44336</v>
@@ -1961,7 +1985,7 @@
     </row>
     <row r="61" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B61" s="14" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C61" s="15">
         <v>44336</v>
@@ -1970,12 +1994,12 @@
         <v>120</v>
       </c>
       <c r="E61" s="18" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B62" s="14" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="C62" s="15">
         <v>44336</v>
@@ -1987,7 +2011,7 @@
     </row>
     <row r="63" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B63" s="14" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C63" s="15">
         <v>44336</v>
@@ -1999,7 +2023,7 @@
     </row>
     <row r="64" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B64" s="14" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C64" s="15">
         <v>44336</v>
@@ -2008,12 +2032,12 @@
         <v>60</v>
       </c>
       <c r="E64" s="18" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65" s="14" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C65" s="15">
         <v>44337</v>
@@ -2025,7 +2049,7 @@
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B66" s="14" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C66" s="15">
         <v>44337</v>
@@ -2037,7 +2061,7 @@
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B67" s="14" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="C67" s="15">
         <v>44337</v>
@@ -2046,12 +2070,12 @@
         <v>30</v>
       </c>
       <c r="E67" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B68" s="14" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C68" s="15">
         <v>44341</v>
@@ -2060,12 +2084,12 @@
         <v>20</v>
       </c>
       <c r="E68" s="18" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
     </row>
     <row r="69" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B69" s="14" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="C69" s="15">
         <v>44341</v>
@@ -2077,7 +2101,7 @@
     </row>
     <row r="70" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B70" s="14" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="C70" s="15">
         <v>44341</v>
@@ -2086,12 +2110,12 @@
         <v>60</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B71" s="7" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="C71" s="15">
         <v>44341</v>
@@ -2100,12 +2124,12 @@
         <v>60</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
     </row>
     <row r="72" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B72" s="14" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="C72" s="15">
         <v>44341</v>
@@ -2117,7 +2141,7 @@
     </row>
     <row r="73" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B73" s="14" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="C73" s="15">
         <v>44341</v>
@@ -2126,7 +2150,7 @@
         <v>60</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.25">
@@ -2143,7 +2167,7 @@
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B75" s="14" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="C75" s="15">
         <v>44341</v>
@@ -2152,12 +2176,12 @@
         <v>20</v>
       </c>
       <c r="E75" s="18" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B76" s="14" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="C76" s="15">
         <v>44341</v>
@@ -2166,12 +2190,12 @@
         <v>30</v>
       </c>
       <c r="E76" s="18" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
     <row r="77" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B77" s="14" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="C77" s="15">
         <v>44343</v>
@@ -2183,7 +2207,7 @@
     </row>
     <row r="78" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B78" s="14" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C78" s="15">
         <v>44343</v>
@@ -2195,7 +2219,7 @@
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B79" s="14" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="C79" s="15">
         <v>44344</v>
@@ -2204,12 +2228,12 @@
         <v>120</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="80" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B80" s="14" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="C80" s="15">
         <v>44344</v>
@@ -2221,7 +2245,7 @@
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B81" s="20" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="C81" s="15">
         <v>44347</v>
@@ -2230,13 +2254,13 @@
         <v>60</v>
       </c>
       <c r="E81" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F81" s="17"/>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B82" s="14" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="C82" s="15">
         <v>44347</v>
@@ -2245,13 +2269,13 @@
         <v>20</v>
       </c>
       <c r="E82" s="18" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F82" s="17"/>
     </row>
     <row r="83" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B83" s="14" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="C83" s="15">
         <v>44347</v>
@@ -2260,13 +2284,13 @@
         <v>120</v>
       </c>
       <c r="E83" s="18" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F83" s="17"/>
     </row>
     <row r="84" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B84" s="14" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="C84" s="15">
         <v>44347</v>
@@ -2275,13 +2299,13 @@
         <v>60</v>
       </c>
       <c r="E84" s="18" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F84" s="17"/>
     </row>
     <row r="85" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B85" s="14" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="C85" s="15">
         <v>44347</v>
@@ -2290,7 +2314,7 @@
         <v>120</v>
       </c>
       <c r="E85" s="18" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F85" s="17"/>
     </row>
@@ -2305,13 +2329,13 @@
         <v>120</v>
       </c>
       <c r="E86" s="18" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="F86" s="17"/>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B87" s="14" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="C87" s="15">
         <v>44348</v>
@@ -2323,7 +2347,7 @@
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B88" s="14" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="C88" s="15">
         <v>44348</v>
@@ -2332,12 +2356,12 @@
         <v>80</v>
       </c>
       <c r="E88" s="18" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B89" s="14" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="C89" s="15">
         <v>44348</v>
@@ -2346,43 +2370,85 @@
         <v>60</v>
       </c>
       <c r="E89" s="18" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B90" s="14"/>
-      <c r="C90" s="15"/>
-      <c r="D90" s="16"/>
-      <c r="E90" s="18"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B90" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C90" s="15">
+        <v>44350</v>
+      </c>
+      <c r="D90" s="16">
+        <v>60</v>
+      </c>
+      <c r="E90" s="18" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B91" s="14"/>
-      <c r="C91" s="15"/>
-      <c r="D91" s="16"/>
-      <c r="E91" s="18"/>
-    </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B92" s="14"/>
-      <c r="C92" s="15"/>
-      <c r="D92" s="16"/>
-      <c r="E92" s="18"/>
-    </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B93" s="14"/>
-      <c r="C93" s="15"/>
-      <c r="D93" s="16"/>
+      <c r="B91" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C91" s="15">
+        <v>44350</v>
+      </c>
+      <c r="D91" s="16">
+        <v>120</v>
+      </c>
+      <c r="E91" s="18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B92" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C92" s="15">
+        <v>44350</v>
+      </c>
+      <c r="D92" s="16">
+        <v>120</v>
+      </c>
+      <c r="E92" s="18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B93" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C93" s="15">
+        <v>44350</v>
+      </c>
+      <c r="D93" s="16">
+        <v>60</v>
+      </c>
       <c r="E93" s="18"/>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B94" s="14"/>
-      <c r="C94" s="15"/>
-      <c r="D94" s="16"/>
+      <c r="B94" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C94" s="15">
+        <v>44350</v>
+      </c>
+      <c r="D94" s="16">
+        <v>60</v>
+      </c>
       <c r="E94" s="18"/>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B95" s="14"/>
-      <c r="C95" s="15"/>
-      <c r="D95" s="16"/>
+    <row r="95" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B95" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C95" s="15">
+        <v>44350</v>
+      </c>
+      <c r="D95" s="16">
+        <v>60</v>
+      </c>
       <c r="E95" s="18"/>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.25">

--- a/Documentation/Journal de bord TPI.xlsx
+++ b/Documentation/Journal de bord TPI.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="145">
   <si>
     <t>Date</t>
   </si>
@@ -479,6 +479,12 @@
   </si>
   <si>
     <t>Correction d'un bug d'affichage uniquement present sur le server</t>
+  </si>
+  <si>
+    <t>Correction doc avant impression</t>
+  </si>
+  <si>
+    <t>Impression</t>
   </si>
 </sst>
 </file>
@@ -521,7 +527,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -670,32 +676,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right/>
       <top style="thin">
         <color auto="1"/>
@@ -707,7 +687,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -763,13 +743,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -907,8 +896,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="B2:E100" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="B2:E100"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="B2:E97" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="B2:E97"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Tâche" dataDxfId="3"/>
     <tableColumn id="3" name="Date" dataDxfId="2"/>
@@ -1187,8 +1176,8 @@
   </sheetPr>
   <dimension ref="B1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E96" sqref="E96"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2452,33 +2441,45 @@
       <c r="E95" s="18"/>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B96" s="14"/>
-      <c r="C96" s="15"/>
-      <c r="D96" s="16"/>
+      <c r="B96" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C96" s="15">
+        <v>44351</v>
+      </c>
+      <c r="D96" s="16">
+        <v>30</v>
+      </c>
       <c r="E96" s="18"/>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B97" s="14"/>
-      <c r="C97" s="15"/>
-      <c r="D97" s="16"/>
+      <c r="B97" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C97" s="15">
+        <v>44351</v>
+      </c>
+      <c r="D97" s="16">
+        <v>100</v>
+      </c>
       <c r="E97" s="18"/>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B98" s="14"/>
-      <c r="C98" s="15"/>
-      <c r="D98" s="16"/>
-      <c r="E98" s="18"/>
+      <c r="B98" s="24"/>
+      <c r="C98" s="25"/>
+      <c r="D98" s="26"/>
+      <c r="E98" s="24"/>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B99" s="14"/>
-      <c r="C99" s="15"/>
-      <c r="D99" s="16"/>
-      <c r="E99" s="18"/>
+      <c r="B99" s="21"/>
+      <c r="C99" s="22"/>
+      <c r="D99" s="23"/>
+      <c r="E99" s="21"/>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B100" s="22"/>
-      <c r="C100" s="23"/>
-      <c r="D100" s="16"/>
+      <c r="B100" s="21"/>
+      <c r="C100" s="22"/>
+      <c r="D100" s="23"/>
       <c r="E100" s="21"/>
     </row>
   </sheetData>
